--- a/Data/EmailTest.xlsx
+++ b/Data/EmailTest.xlsx
@@ -20,18 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">Valid Email Correct Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayahya.testitg@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">046pre056ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Email Correct Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Password</t>
+  </si>
   <si>
     <t xml:space="preserve">garbageinfo@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">ayahya.testitg@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">hello</t>
   </si>
   <si>
-    <t xml:space="preserve">046pre056ty</t>
+    <t xml:space="preserve"> Incorrect Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nonsense</t>
   </si>
 </sst>
 </file>
@@ -41,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -63,6 +81,37 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF3465A4"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3465A4"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -73,12 +122,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,12 +170,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -133,6 +204,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF3465A4"/>
+      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -141,42 +272,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="garbageinfo@gmail.com"/>
-    <hyperlink ref="A2" r:id="rId2" display="ayahya.testitg@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="ayahya.testitg@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="garbageinfo@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
